--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Jam2-Jam3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Jam2-Jam3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>79.6310094406919</v>
+        <v>81.04438</v>
       </c>
       <c r="H2">
-        <v>79.6310094406919</v>
+        <v>243.13314</v>
       </c>
       <c r="I2">
-        <v>0.9562208550292027</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="J2">
-        <v>0.9562208550292027</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9915646589042</v>
+        <v>13.02210933333333</v>
       </c>
       <c r="N2">
-        <v>11.9915646589042</v>
+        <v>39.066328</v>
       </c>
       <c r="O2">
-        <v>0.4198693819264017</v>
+        <v>0.4128356114465611</v>
       </c>
       <c r="P2">
-        <v>0.4198693819264017</v>
+        <v>0.4128356114465612</v>
       </c>
       <c r="Q2">
-        <v>954.9003985618677</v>
+        <v>1055.368777212213</v>
       </c>
       <c r="R2">
-        <v>954.9003985618677</v>
+        <v>9498.318994909921</v>
       </c>
       <c r="S2">
-        <v>0.4014878593862468</v>
+        <v>0.3925217703201067</v>
       </c>
       <c r="T2">
-        <v>0.4014878593862468</v>
+        <v>0.3925217703201068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>79.6310094406919</v>
+        <v>81.04438</v>
       </c>
       <c r="H3">
-        <v>79.6310094406919</v>
+        <v>243.13314</v>
       </c>
       <c r="I3">
-        <v>0.9562208550292027</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="J3">
-        <v>0.9562208550292027</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.09677301080679</v>
+        <v>7.309488999999999</v>
       </c>
       <c r="N3">
-        <v>7.09677301080679</v>
+        <v>21.928467</v>
       </c>
       <c r="O3">
-        <v>0.248484479088128</v>
+        <v>0.2317303044716856</v>
       </c>
       <c r="P3">
-        <v>0.248484479088128</v>
+        <v>0.2317303044716857</v>
       </c>
       <c r="Q3">
-        <v>565.123198622003</v>
+        <v>592.39300412182</v>
       </c>
       <c r="R3">
-        <v>565.123198622003</v>
+        <v>5331.53703709638</v>
       </c>
       <c r="S3">
-        <v>0.2376060410551358</v>
+        <v>0.2203278661676634</v>
       </c>
       <c r="T3">
-        <v>0.2376060410551358</v>
+        <v>0.2203278661676634</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>79.6310094406919</v>
+        <v>81.04438</v>
       </c>
       <c r="H4">
-        <v>79.6310094406919</v>
+        <v>243.13314</v>
       </c>
       <c r="I4">
-        <v>0.9562208550292027</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="J4">
-        <v>0.9562208550292027</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>9.471888855704441</v>
+        <v>0.2185433333333333</v>
       </c>
       <c r="N4">
-        <v>9.471888855704441</v>
+        <v>0.65563</v>
       </c>
       <c r="O4">
-        <v>0.3316461389854703</v>
+        <v>0.006928406783783438</v>
       </c>
       <c r="P4">
-        <v>0.3316461389854703</v>
+        <v>0.00692840678378344</v>
       </c>
       <c r="Q4">
-        <v>754.2560708897847</v>
+        <v>17.71170895313334</v>
       </c>
       <c r="R4">
-        <v>754.2560708897847</v>
+        <v>159.4053805782</v>
       </c>
       <c r="S4">
-        <v>0.3171269545878202</v>
+        <v>0.006587490082891117</v>
       </c>
       <c r="T4">
-        <v>0.3171269545878202</v>
+        <v>0.006587490082891119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.55823765776532</v>
+        <v>81.04438</v>
       </c>
       <c r="H5">
-        <v>2.55823765776532</v>
+        <v>243.13314</v>
       </c>
       <c r="I5">
-        <v>0.03071969346687971</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="J5">
-        <v>0.03071969346687971</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>11.9915646589042</v>
+        <v>0.6185026666666666</v>
       </c>
       <c r="N5">
-        <v>11.9915646589042</v>
+        <v>1.855508</v>
       </c>
       <c r="O5">
-        <v>0.4198693819264017</v>
+        <v>0.01960818482156771</v>
       </c>
       <c r="P5">
-        <v>0.4198693819264017</v>
+        <v>0.01960818482156771</v>
       </c>
       <c r="Q5">
-        <v>30.67727228593647</v>
+        <v>50.12616514834667</v>
       </c>
       <c r="R5">
-        <v>30.67727228593647</v>
+        <v>451.13548633512</v>
       </c>
       <c r="S5">
-        <v>0.0128982587089073</v>
+        <v>0.0186433515072909</v>
       </c>
       <c r="T5">
-        <v>0.0128982587089073</v>
+        <v>0.0186433515072909</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.55823765776532</v>
+        <v>81.04438</v>
       </c>
       <c r="H6">
-        <v>2.55823765776532</v>
+        <v>243.13314</v>
       </c>
       <c r="I6">
-        <v>0.03071969346687971</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="J6">
-        <v>0.03071969346687971</v>
+        <v>0.9507943584244697</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.09677301080679</v>
+        <v>10.374442</v>
       </c>
       <c r="N6">
-        <v>7.09677301080679</v>
+        <v>31.123326</v>
       </c>
       <c r="O6">
-        <v>0.248484479088128</v>
+        <v>0.328897492476402</v>
       </c>
       <c r="P6">
-        <v>0.248484479088128</v>
+        <v>0.328897492476402</v>
       </c>
       <c r="Q6">
-        <v>18.1552319648585</v>
+        <v>840.79021973596</v>
       </c>
       <c r="R6">
-        <v>18.1552319648585</v>
+        <v>7567.11197762364</v>
       </c>
       <c r="S6">
-        <v>0.007633367028864574</v>
+        <v>0.3127138803465175</v>
       </c>
       <c r="T6">
-        <v>0.007633367028864574</v>
+        <v>0.3127138803465175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.55823765776532</v>
+        <v>2.673647</v>
       </c>
       <c r="H7">
-        <v>2.55823765776532</v>
+        <v>8.020941000000001</v>
       </c>
       <c r="I7">
-        <v>0.03071969346687971</v>
+        <v>0.03136662263340787</v>
       </c>
       <c r="J7">
-        <v>0.03071969346687971</v>
+        <v>0.03136662263340786</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.471888855704441</v>
+        <v>13.02210933333333</v>
       </c>
       <c r="N7">
-        <v>9.471888855704441</v>
+        <v>39.066328</v>
       </c>
       <c r="O7">
-        <v>0.3316461389854703</v>
+        <v>0.4128356114465611</v>
       </c>
       <c r="P7">
-        <v>0.3316461389854703</v>
+        <v>0.4128356114465612</v>
       </c>
       <c r="Q7">
-        <v>24.23134276083077</v>
+        <v>34.81652355273867</v>
       </c>
       <c r="R7">
-        <v>24.23134276083077</v>
+        <v>313.348711974648</v>
       </c>
       <c r="S7">
-        <v>0.01018806772910783</v>
+        <v>0.01294925883387648</v>
       </c>
       <c r="T7">
-        <v>0.01018806772910783</v>
+        <v>0.01294925883387648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.128982111943781</v>
+        <v>2.673647</v>
       </c>
       <c r="H8">
-        <v>0.128982111943781</v>
+        <v>8.020941000000001</v>
       </c>
       <c r="I8">
-        <v>0.001548836141003752</v>
+        <v>0.03136662263340787</v>
       </c>
       <c r="J8">
-        <v>0.001548836141003752</v>
+        <v>0.03136662263340786</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.9915646589042</v>
+        <v>7.309488999999999</v>
       </c>
       <c r="N8">
-        <v>11.9915646589042</v>
+        <v>21.928467</v>
       </c>
       <c r="O8">
-        <v>0.4198693819264017</v>
+        <v>0.2317303044716856</v>
       </c>
       <c r="P8">
-        <v>0.4198693819264017</v>
+        <v>0.2317303044716857</v>
       </c>
       <c r="Q8">
-        <v>1.54669733521587</v>
+        <v>19.542993336383</v>
       </c>
       <c r="R8">
-        <v>1.54669733521587</v>
+        <v>175.886940027447</v>
       </c>
       <c r="S8">
-        <v>0.0006503088732285187</v>
+        <v>0.007268597013088072</v>
       </c>
       <c r="T8">
-        <v>0.0006503088732285187</v>
+        <v>0.007268597013088071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.128982111943781</v>
+        <v>2.673647</v>
       </c>
       <c r="H9">
-        <v>0.128982111943781</v>
+        <v>8.020941000000001</v>
       </c>
       <c r="I9">
-        <v>0.001548836141003752</v>
+        <v>0.03136662263340787</v>
       </c>
       <c r="J9">
-        <v>0.001548836141003752</v>
+        <v>0.03136662263340786</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>7.09677301080679</v>
+        <v>0.2185433333333333</v>
       </c>
       <c r="N9">
-        <v>7.09677301080679</v>
+        <v>0.65563</v>
       </c>
       <c r="O9">
-        <v>0.248484479088128</v>
+        <v>0.006928406783783438</v>
       </c>
       <c r="P9">
-        <v>0.248484479088128</v>
+        <v>0.00692840678378344</v>
       </c>
       <c r="Q9">
-        <v>0.9153567709194852</v>
+        <v>0.5843077275366667</v>
       </c>
       <c r="R9">
-        <v>0.9153567709194852</v>
+        <v>5.258769547830001</v>
       </c>
       <c r="S9">
-        <v>0.0003848617416901838</v>
+        <v>0.0002173207210376782</v>
       </c>
       <c r="T9">
-        <v>0.0003848617416901838</v>
+        <v>0.0002173207210376782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.128982111943781</v>
+        <v>2.673647</v>
       </c>
       <c r="H10">
-        <v>0.128982111943781</v>
+        <v>8.020941000000001</v>
       </c>
       <c r="I10">
-        <v>0.001548836141003752</v>
+        <v>0.03136662263340787</v>
       </c>
       <c r="J10">
-        <v>0.001548836141003752</v>
+        <v>0.03136662263340786</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>9.471888855704441</v>
+        <v>0.6185026666666666</v>
       </c>
       <c r="N10">
-        <v>9.471888855704441</v>
+        <v>1.855508</v>
       </c>
       <c r="O10">
-        <v>0.3316461389854703</v>
+        <v>0.01960818482156771</v>
       </c>
       <c r="P10">
-        <v>0.3316461389854703</v>
+        <v>0.01960818482156771</v>
       </c>
       <c r="Q10">
-        <v>1.221704228705522</v>
+        <v>1.653657799225333</v>
       </c>
       <c r="R10">
-        <v>1.221704228705522</v>
+        <v>14.882920193028</v>
       </c>
       <c r="S10">
-        <v>0.0005136655260850499</v>
+        <v>0.0006150425338242306</v>
       </c>
       <c r="T10">
-        <v>0.0005136655260850499</v>
+        <v>0.0006150425338242304</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.958567171811332</v>
+        <v>2.673647</v>
       </c>
       <c r="H11">
-        <v>0.958567171811332</v>
+        <v>8.020941000000001</v>
       </c>
       <c r="I11">
-        <v>0.01151061536291373</v>
+        <v>0.03136662263340787</v>
       </c>
       <c r="J11">
-        <v>0.01151061536291373</v>
+        <v>0.03136662263340786</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9915646589042</v>
+        <v>10.374442</v>
       </c>
       <c r="N11">
-        <v>11.9915646589042</v>
+        <v>31.123326</v>
       </c>
       <c r="O11">
-        <v>0.4198693819264017</v>
+        <v>0.328897492476402</v>
       </c>
       <c r="P11">
-        <v>0.4198693819264017</v>
+        <v>0.328897492476402</v>
       </c>
       <c r="Q11">
-        <v>11.49472022067852</v>
+        <v>27.737595729974</v>
       </c>
       <c r="R11">
-        <v>11.49472022067852</v>
+        <v>249.638361569766</v>
       </c>
       <c r="S11">
-        <v>0.004832954958019133</v>
+        <v>0.01031640353158141</v>
       </c>
       <c r="T11">
-        <v>0.004832954958019133</v>
+        <v>0.01031640353158141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.958567171811332</v>
+        <v>0.1781623333333333</v>
       </c>
       <c r="H12">
-        <v>0.958567171811332</v>
+        <v>0.534487</v>
       </c>
       <c r="I12">
-        <v>0.01151061536291373</v>
+        <v>0.002090160248213055</v>
       </c>
       <c r="J12">
-        <v>0.01151061536291373</v>
+        <v>0.002090160248213055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.09677301080679</v>
+        <v>13.02210933333333</v>
       </c>
       <c r="N12">
-        <v>7.09677301080679</v>
+        <v>39.066328</v>
       </c>
       <c r="O12">
-        <v>0.248484479088128</v>
+        <v>0.4128356114465611</v>
       </c>
       <c r="P12">
-        <v>0.248484479088128</v>
+        <v>0.4128356114465612</v>
       </c>
       <c r="Q12">
-        <v>6.802733633956056</v>
+        <v>2.320049383748445</v>
       </c>
       <c r="R12">
-        <v>6.802733633956056</v>
+        <v>20.880444453736</v>
       </c>
       <c r="S12">
-        <v>0.002860209262437423</v>
+        <v>0.0008628925840923326</v>
       </c>
       <c r="T12">
-        <v>0.002860209262437423</v>
+        <v>0.0008628925840923327</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1781623333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.534487</v>
+      </c>
+      <c r="I13">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="J13">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.309488999999999</v>
+      </c>
+      <c r="N13">
+        <v>21.928467</v>
+      </c>
+      <c r="O13">
+        <v>0.2317303044716856</v>
+      </c>
+      <c r="P13">
+        <v>0.2317303044716857</v>
+      </c>
+      <c r="Q13">
+        <v>1.302275615714333</v>
+      </c>
+      <c r="R13">
+        <v>11.720480541429</v>
+      </c>
+      <c r="S13">
+        <v>0.0004843534707130253</v>
+      </c>
+      <c r="T13">
+        <v>0.0004843534707130254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1781623333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.534487</v>
+      </c>
+      <c r="I14">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="J14">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.2185433333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.65563</v>
+      </c>
+      <c r="O14">
+        <v>0.006928406783783438</v>
+      </c>
+      <c r="P14">
+        <v>0.00692840678378344</v>
+      </c>
+      <c r="Q14">
+        <v>0.03893619020111112</v>
+      </c>
+      <c r="R14">
+        <v>0.35042571181</v>
+      </c>
+      <c r="S14">
+        <v>1.448148044291381E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.448148044291381E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1781623333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.534487</v>
+      </c>
+      <c r="I15">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="J15">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6185026666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.855508</v>
+      </c>
+      <c r="O15">
+        <v>0.01960818482156771</v>
+      </c>
+      <c r="P15">
+        <v>0.01960818482156771</v>
+      </c>
+      <c r="Q15">
+        <v>0.1101938782662222</v>
+      </c>
+      <c r="R15">
+        <v>0.991744904396</v>
+      </c>
+      <c r="S15">
+        <v>4.098424845365543E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.098424845365543E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1781623333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.534487</v>
+      </c>
+      <c r="I16">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="J16">
+        <v>0.002090160248213055</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.374442</v>
+      </c>
+      <c r="N16">
+        <v>31.123326</v>
+      </c>
+      <c r="O16">
+        <v>0.328897492476402</v>
+      </c>
+      <c r="P16">
+        <v>0.328897492476402</v>
+      </c>
+      <c r="Q16">
+        <v>1.848334793751333</v>
+      </c>
+      <c r="R16">
+        <v>16.635013143762</v>
+      </c>
+      <c r="S16">
+        <v>0.000687448464511128</v>
+      </c>
+      <c r="T16">
+        <v>0.000687448464511128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.958567171811332</v>
-      </c>
-      <c r="H13">
-        <v>0.958567171811332</v>
-      </c>
-      <c r="I13">
-        <v>0.01151061536291373</v>
-      </c>
-      <c r="J13">
-        <v>0.01151061536291373</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.471888855704441</v>
-      </c>
-      <c r="N13">
-        <v>9.471888855704441</v>
-      </c>
-      <c r="O13">
-        <v>0.3316461389854703</v>
-      </c>
-      <c r="P13">
-        <v>0.3316461389854703</v>
-      </c>
-      <c r="Q13">
-        <v>9.079441712123879</v>
-      </c>
-      <c r="R13">
-        <v>9.079441712123879</v>
-      </c>
-      <c r="S13">
-        <v>0.003817451142457177</v>
-      </c>
-      <c r="T13">
-        <v>0.003817451142457177</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.16027</v>
+      </c>
+      <c r="H17">
+        <v>0.48081</v>
+      </c>
+      <c r="I17">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="J17">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.02210933333333</v>
+      </c>
+      <c r="N17">
+        <v>39.066328</v>
+      </c>
+      <c r="O17">
+        <v>0.4128356114465611</v>
+      </c>
+      <c r="P17">
+        <v>0.4128356114465612</v>
+      </c>
+      <c r="Q17">
+        <v>2.087053462853333</v>
+      </c>
+      <c r="R17">
+        <v>18.78348116568</v>
+      </c>
+      <c r="S17">
+        <v>0.0007762347509994339</v>
+      </c>
+      <c r="T17">
+        <v>0.000776234750999434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.16027</v>
+      </c>
+      <c r="H18">
+        <v>0.48081</v>
+      </c>
+      <c r="I18">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="J18">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.309488999999999</v>
+      </c>
+      <c r="N18">
+        <v>21.928467</v>
+      </c>
+      <c r="O18">
+        <v>0.2317303044716856</v>
+      </c>
+      <c r="P18">
+        <v>0.2317303044716857</v>
+      </c>
+      <c r="Q18">
+        <v>1.17149180203</v>
+      </c>
+      <c r="R18">
+        <v>10.54342621827</v>
+      </c>
+      <c r="S18">
+        <v>0.0004357112376045248</v>
+      </c>
+      <c r="T18">
+        <v>0.0004357112376045249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.16027</v>
+      </c>
+      <c r="H19">
+        <v>0.48081</v>
+      </c>
+      <c r="I19">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="J19">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.2185433333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.65563</v>
+      </c>
+      <c r="O19">
+        <v>0.006928406783783438</v>
+      </c>
+      <c r="P19">
+        <v>0.00692840678378344</v>
+      </c>
+      <c r="Q19">
+        <v>0.03502594003333333</v>
+      </c>
+      <c r="R19">
+        <v>0.3152334603</v>
+      </c>
+      <c r="S19">
+        <v>1.302714680012308E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.302714680012309E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.16027</v>
+      </c>
+      <c r="H20">
+        <v>0.48081</v>
+      </c>
+      <c r="I20">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="J20">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.6185026666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.855508</v>
+      </c>
+      <c r="O20">
+        <v>0.01960818482156771</v>
+      </c>
+      <c r="P20">
+        <v>0.01960818482156771</v>
+      </c>
+      <c r="Q20">
+        <v>0.09912742238666666</v>
+      </c>
+      <c r="R20">
+        <v>0.89214680148</v>
+      </c>
+      <c r="S20">
+        <v>3.686831765599924E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.686831765599924E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.16027</v>
+      </c>
+      <c r="H21">
+        <v>0.48081</v>
+      </c>
+      <c r="I21">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="J21">
+        <v>0.001880251435382561</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.374442</v>
+      </c>
+      <c r="N21">
+        <v>31.123326</v>
+      </c>
+      <c r="O21">
+        <v>0.328897492476402</v>
+      </c>
+      <c r="P21">
+        <v>0.328897492476402</v>
+      </c>
+      <c r="Q21">
+        <v>1.66271181934</v>
+      </c>
+      <c r="R21">
+        <v>14.96440637406</v>
+      </c>
+      <c r="S21">
+        <v>0.0006184099823224801</v>
+      </c>
+      <c r="T21">
+        <v>0.0006184099823224801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.182140666666667</v>
+      </c>
+      <c r="H22">
+        <v>3.546422</v>
+      </c>
+      <c r="I22">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="J22">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.02210933333333</v>
+      </c>
+      <c r="N22">
+        <v>39.066328</v>
+      </c>
+      <c r="O22">
+        <v>0.4128356114465611</v>
+      </c>
+      <c r="P22">
+        <v>0.4128356114465612</v>
+      </c>
+      <c r="Q22">
+        <v>15.39396500871289</v>
+      </c>
+      <c r="R22">
+        <v>138.545685078416</v>
+      </c>
+      <c r="S22">
+        <v>0.005725454957486147</v>
+      </c>
+      <c r="T22">
+        <v>0.005725454957486147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.182140666666667</v>
+      </c>
+      <c r="H23">
+        <v>3.546422</v>
+      </c>
+      <c r="I23">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="J23">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.309488999999999</v>
+      </c>
+      <c r="N23">
+        <v>21.928467</v>
+      </c>
+      <c r="O23">
+        <v>0.2317303044716856</v>
+      </c>
+      <c r="P23">
+        <v>0.2317303044716857</v>
+      </c>
+      <c r="Q23">
+        <v>8.640844199452665</v>
+      </c>
+      <c r="R23">
+        <v>77.767597795074</v>
+      </c>
+      <c r="S23">
+        <v>0.003213776582616656</v>
+      </c>
+      <c r="T23">
+        <v>0.003213776582616656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.182140666666667</v>
+      </c>
+      <c r="H24">
+        <v>3.546422</v>
+      </c>
+      <c r="I24">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="J24">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.2185433333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.65563</v>
+      </c>
+      <c r="O24">
+        <v>0.006928406783783438</v>
+      </c>
+      <c r="P24">
+        <v>0.00692840678378344</v>
+      </c>
+      <c r="Q24">
+        <v>0.2583489617622222</v>
+      </c>
+      <c r="R24">
+        <v>2.32514065586</v>
+      </c>
+      <c r="S24">
+        <v>9.608735261160565E-05</v>
+      </c>
+      <c r="T24">
+        <v>9.608735261160566E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.182140666666667</v>
+      </c>
+      <c r="H25">
+        <v>3.546422</v>
+      </c>
+      <c r="I25">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="J25">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.6185026666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.855508</v>
+      </c>
+      <c r="O25">
+        <v>0.01960818482156771</v>
+      </c>
+      <c r="P25">
+        <v>0.01960818482156771</v>
+      </c>
+      <c r="Q25">
+        <v>0.7311571547084444</v>
+      </c>
+      <c r="R25">
+        <v>6.580414392376</v>
+      </c>
+      <c r="S25">
+        <v>0.00027193821434293</v>
+      </c>
+      <c r="T25">
+        <v>0.00027193821434293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.182140666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.546422</v>
+      </c>
+      <c r="I26">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="J26">
+        <v>0.01386860725852685</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.374442</v>
+      </c>
+      <c r="N26">
+        <v>31.123326</v>
+      </c>
+      <c r="O26">
+        <v>0.328897492476402</v>
+      </c>
+      <c r="P26">
+        <v>0.328897492476402</v>
+      </c>
+      <c r="Q26">
+        <v>12.26404978217467</v>
+      </c>
+      <c r="R26">
+        <v>110.376448039572</v>
+      </c>
+      <c r="S26">
+        <v>0.004561350151469509</v>
+      </c>
+      <c r="T26">
+        <v>0.004561350151469508</v>
       </c>
     </row>
   </sheetData>
